--- a/Munkafüzet1.xlsx
+++ b/Munkafüzet1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\kurvafontos genya 12.be\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oleszkaA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3F9C83B-BBC8-4082-AE86-4D3119A2E886}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D978878-CFE4-4976-BCDC-B7C734138D0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{696C7776-FDDD-4ED3-9CA9-E4F652B6443F}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>Diák</t>
-  </si>
-  <si>
     <t>180db</t>
   </si>
   <si>
@@ -39,18 +36,6 @@
     <t>28db</t>
   </si>
   <si>
-    <t>Terem</t>
-  </si>
-  <si>
-    <t>Tanári</t>
-  </si>
-  <si>
-    <t>Interaktív tábla</t>
-  </si>
-  <si>
-    <t>Nyomtató</t>
-  </si>
-  <si>
     <t>Igazgatói iroda</t>
   </si>
   <si>
@@ -67,6 +52,21 @@
   </si>
   <si>
     <t>1db</t>
+  </si>
+  <si>
+    <t>Diákok</t>
+  </si>
+  <si>
+    <t>Termek</t>
+  </si>
+  <si>
+    <t>Tanári szobák</t>
+  </si>
+  <si>
+    <t>Interaktív táblák</t>
+  </si>
+  <si>
+    <t>Nyomtatók</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,58 +432,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
